--- a/Conveyance Bill October.xlsx
+++ b/Conveyance Bill October.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>ZAB</t>
   </si>
@@ -98,19 +98,7 @@
     <t>zakaria.forhad@zaberp.com, CC: info@zaberp.com</t>
   </si>
   <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Unimart Gulshan-2</t>
-  </si>
-  <si>
     <t>Name: Mahbubur Rahman</t>
-  </si>
-  <si>
-    <t>Unimart</t>
   </si>
   <si>
     <r>
@@ -150,31 +138,22 @@
     </r>
   </si>
   <si>
-    <t>Gulshan-1,2</t>
-  </si>
-  <si>
-    <t>EBL and DBBL</t>
-  </si>
-  <si>
-    <t>Bill Deposit</t>
-  </si>
-  <si>
-    <t>Bill collect</t>
-  </si>
-  <si>
-    <t>sk japan, ashian, continental</t>
-  </si>
-  <si>
-    <t>Tejgaon</t>
-  </si>
-  <si>
     <t>Gulshan-2</t>
   </si>
   <si>
-    <t>Midland Bank</t>
-  </si>
-  <si>
-    <t>Cash withdraw</t>
+    <t>Money Receipts</t>
+  </si>
+  <si>
+    <t>Unimart 10 th flour</t>
+  </si>
+  <si>
+    <t>IDB</t>
+  </si>
+  <si>
+    <t>Loptop</t>
+  </si>
+  <si>
+    <t>Hitech Professionals</t>
   </si>
 </sst>
 </file>
@@ -896,6 +875,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,27 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,7 +1008,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1336,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,19 +1400,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
@@ -1444,15 +1423,15 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
@@ -1463,43 +1442,43 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74" t="s">
+      <c r="C6" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="J6" s="77" t="s">
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="J6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79" t="s">
+      <c r="K6" s="85"/>
+      <c r="L6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="80" t="s">
+      <c r="M6" s="86"/>
+      <c r="N6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="82" t="s">
+      <c r="O6" s="59" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="10"/>
@@ -1538,8 +1517,8 @@
       <c r="M7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="83"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="1"/>
     </row>
@@ -1548,35 +1527,17 @@
       <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19">
-        <f>DATE(2019,8,4)</f>
-        <v>43681</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="21">
-        <f>SUM(J8:M8)</f>
-        <v>100</v>
-      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="23">
-        <v>50</v>
-      </c>
-      <c r="K8" s="24">
-        <v>50</v>
-      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="N8" s="25"/>
       <c r="O8" s="26" t="s">
         <v>15</v>
       </c>
@@ -1589,31 +1550,29 @@
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E9" s="19">
-        <f>DATE(2019,8,7)</f>
-        <v>43684</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>34</v>
+        <f>DATE(2019,10,7)</f>
+        <v>43745</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H9" s="31">
         <f>SUM(J9:M9)</f>
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="J9" s="18">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9" s="20">
-        <v>20</v>
-      </c>
-      <c r="L9" s="20">
-        <v>80</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="25"/>
       <c r="O9" s="32"/>
@@ -1626,16 +1585,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="19">
+        <f>DATE(2019,10,7)</f>
+        <v>43745</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="19">
-        <f>DATE(2019,8,8)</f>
-        <v>43685</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="31">
@@ -1643,10 +1602,10 @@
         <v>70</v>
       </c>
       <c r="J10" s="33">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K10" s="34">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -1660,29 +1619,16 @@
       <c r="C11" s="28">
         <v>4</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="19">
-        <f>DATE(2019,8,25)</f>
-        <v>43702</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>38</v>
-      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="31">
         <f>SUM(J11:M11)</f>
-        <v>70</v>
-      </c>
-      <c r="J11" s="33">
-        <v>20</v>
-      </c>
-      <c r="K11" s="34">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="36"/>
@@ -2006,19 +1952,19 @@
       </c>
       <c r="H26" s="45">
         <f>SUM(H8:H25)</f>
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="J26" s="46">
         <f>SUM(J8:J25)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K26" s="47">
         <f>SUM(K8:K25)</f>
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="L26" s="47">
         <f>SUM(L8:L25)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M26" s="48">
         <f>SUM(M8:M25)</f>
@@ -2032,10 +1978,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="84"/>
+      <c r="E28" s="61"/>
       <c r="G28" s="36" t="s">
         <v>18</v>
       </c>
@@ -2050,8 +1996,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="G29" s="36" t="s">
         <v>19</v>
       </c>
@@ -2066,14 +2012,14 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="G30" s="50" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="51">
         <f>H26+H28-H29</f>
-        <v>370</v>
+        <v>145</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2083,8 +2029,8 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="52"/>
       <c r="G31" s="53" t="s">
         <v>17</v>
@@ -2100,8 +2046,8 @@
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="G32" s="55" t="s">
         <v>21</v>
       </c>
@@ -2116,28 +2062,28 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="87">
+      <c r="K33" s="63"/>
+      <c r="L33" s="64">
         <f ca="1">NOW()</f>
-        <v>43747.438486689818</v>
-      </c>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+        <v>43747.446734722223</v>
+      </c>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2161,11 +2107,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:P33"/>
     <mergeCell ref="F3:J5"/>
     <mergeCell ref="K3:N5"/>
     <mergeCell ref="C6:E6"/>
@@ -2173,6 +2114,11 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:P33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1" display="zakaria.forhad@zaberp.com"/>

--- a/Conveyance Bill October.xlsx
+++ b/Conveyance Bill October.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ZAB</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Hitech Professionals</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
@@ -875,6 +878,75 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,75 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1008,7 +1011,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,8 +1338,8 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,19 +1403,19 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="72" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="1"/>
@@ -1423,15 +1426,15 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="1"/>
@@ -1442,43 +1445,43 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="77"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="70"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81" t="s">
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="83"/>
-      <c r="J6" s="84" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="J6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86" t="s">
+      <c r="K6" s="78"/>
+      <c r="L6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87" t="s">
+      <c r="M6" s="79"/>
+      <c r="N6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="82" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="10"/>
@@ -1517,8 +1520,8 @@
       <c r="M7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="60"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="1"/>
     </row>
@@ -1620,16 +1623,23 @@
         <v>4</v>
       </c>
       <c r="D11" s="29"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="19">
+        <f>DATE(2019,10,28)</f>
+        <v>43766</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="58"/>
       <c r="H11" s="31">
         <f>SUM(J11:M11)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="L11" s="34">
+        <v>20</v>
+      </c>
       <c r="M11" s="34"/>
       <c r="N11" s="36"/>
       <c r="O11" s="35"/>
@@ -1952,7 +1962,7 @@
       </c>
       <c r="H26" s="45">
         <f>SUM(H8:H25)</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J26" s="46">
         <f>SUM(J8:J25)</f>
@@ -1964,7 +1974,7 @@
       </c>
       <c r="L26" s="47">
         <f>SUM(L8:L25)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M26" s="48">
         <f>SUM(M8:M25)</f>
@@ -1978,10 +1988,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="61"/>
+      <c r="E28" s="84"/>
       <c r="G28" s="36" t="s">
         <v>18</v>
       </c>
@@ -1996,8 +2006,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
       <c r="G29" s="36" t="s">
         <v>19</v>
       </c>
@@ -2012,14 +2022,14 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="G30" s="50" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="51">
         <f>H26+H28-H29</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
@@ -2029,8 +2039,8 @@
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="52"/>
       <c r="G31" s="53" t="s">
         <v>17</v>
@@ -2046,8 +2056,8 @@
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="G32" s="55" t="s">
         <v>21</v>
       </c>
@@ -2062,28 +2072,28 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64">
+      <c r="K33" s="86"/>
+      <c r="L33" s="87">
         <f ca="1">NOW()</f>
-        <v>43747.446734722223</v>
-      </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
+        <v>43767.661390162037</v>
+      </c>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2107,6 +2117,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:P33"/>
     <mergeCell ref="F3:J5"/>
     <mergeCell ref="K3:N5"/>
     <mergeCell ref="C6:E6"/>
@@ -2114,11 +2129,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:P33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B33" r:id="rId1" display="zakaria.forhad@zaberp.com"/>
